--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="359">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +84,7 @@
 Prop(道具): 9
 Treasure(宝箱): 10
 Npc: 11
+Boss: 12
 Other(其它类型): 99</t>
   </si>
   <si>
@@ -122,7 +123,8 @@
 如果不需要在图鉴或者地图编辑器中显示该物体, 则可以不用设置</t>
   </si>
   <si>
-    <t>是否在地图编辑器中显示该物体</t>
+    <t>是否在地图编辑器中显示该物体
+仅对角色, 武器, 道具, 敌人和Boss类型对物体有效</t>
   </si>
   <si>
     <t>string</t>
@@ -179,40 +181,13 @@
     <t>res://resource/sprite/role/enemy0002/Enemy0002.png</t>
   </si>
   <si>
-    <t>enemy0003</t>
-  </si>
-  <si>
-    <t>敌人3</t>
-  </si>
-  <si>
-    <t>res://prefab/role/enemy/Enemy0003.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/role/enemy0003/enemy0003_Icon.png</t>
-  </si>
-  <si>
-    <t>enemy0004</t>
-  </si>
-  <si>
-    <t>敌人4</t>
-  </si>
-  <si>
-    <t>res://prefab/role/enemy/Enemy0004.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/role/enemy0004/enemy0004_Icon.png</t>
-  </si>
-  <si>
-    <t>enemy0005</t>
-  </si>
-  <si>
-    <t>敌人5</t>
-  </si>
-  <si>
-    <t>res://prefab/role/enemy/Enemy0005.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/role/enemy0005/enemy0005_Icon.png</t>
+    <t>boss0001</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>res://prefab/role/boss/Boss0001.tscn</t>
   </si>
   <si>
     <t>shopBoss0001</t>
@@ -465,6 +440,24 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0009.tscn</t>
+  </si>
+  <si>
+    <t>summons0001</t>
+  </si>
+  <si>
+    <t>boss召唤物子弹</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/summons/Summons0001.tscn</t>
+  </si>
+  <si>
+    <t>special0001</t>
+  </si>
+  <si>
+    <t>boss特殊子弹</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/special/SpecialBullet0001.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -2189,28 +2182,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="22.4272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6" style="1" customWidth="1"/>
-    <col min="4" max="5" width="27.3727272727273" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.8181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1272727272727" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.3636363636364" style="3" customWidth="1"/>
-    <col min="11" max="11" width="61.9090909090909" customWidth="1"/>
-    <col min="12" max="12" width="32.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="22.4230769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4326923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5961538461538" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5576923076923" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8173076923077" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.3653846153846" style="3" customWidth="1"/>
+    <col min="11" max="11" width="61.9134615384615" customWidth="1"/>
+    <col min="12" max="12" width="32.4230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -2285,7 +2278,7 @@
       <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2411,154 +2404,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="28" customHeight="1" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <v>1</v>
-      </c>
+    <row r="9" ht="28" customHeight="1" spans="10:12">
+      <c r="J9" s="1"/>
+      <c r="K9"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="10:12">
+      <c r="J10" s="1"/>
+      <c r="K10"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="10:12">
+      <c r="J11" s="1"/>
+      <c r="K11"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="10:12">
       <c r="J12" s="1"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" ht="28" customHeight="1" spans="10:12">
-      <c r="J13" s="1"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="13" ht="28" customHeight="1" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="10:12">
+      <c r="J14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="28" customHeight="1" spans="10:12">
-      <c r="J15" s="1"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="28" customHeight="1" spans="10:12">
+      <c r="J16" s="1"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2570,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L17" s="2" t="b">
         <v>1</v>
@@ -2581,25 +2511,25 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L18" s="2" t="b">
         <v>1</v>
@@ -2607,25 +2537,25 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2" t="b">
         <v>1</v>
@@ -2633,10 +2563,10 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2648,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
@@ -2659,25 +2589,25 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
@@ -2685,25 +2615,25 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2711,25 +2641,25 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2" t="b">
         <v>1</v>
@@ -2737,25 +2667,25 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L24" s="2" t="b">
         <v>1</v>
@@ -2763,25 +2693,25 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2" t="b">
         <v>1</v>
@@ -2789,10 +2719,10 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2804,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L26" s="2" t="b">
         <v>1</v>
@@ -2815,25 +2745,25 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="L27" s="2" t="b">
         <v>1</v>
@@ -2841,25 +2771,25 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L28" s="2" t="b">
         <v>1</v>
@@ -2867,10 +2797,10 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2882,36 +2812,45 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="39" customHeight="1"/>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+    <row r="30" ht="24" customHeight="1" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="39" customHeight="1"/>
+    <row r="32" ht="17" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2920,41 +2859,34 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>107</v>
+      </c>
       <c r="C33" s="1">
         <v>6</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
       <c r="H33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="17" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>6</v>
       </c>
@@ -2966,18 +2898,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="17" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2990,18 +2922,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="17" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -3014,17 +2946,19 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="17" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C37" s="1">
         <v>6</v>
       </c>
@@ -3036,15 +2970,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="17" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -3058,19 +2992,17 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="17" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>6</v>
       </c>
@@ -3081,22 +3013,34 @@
       <c r="H39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J39" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:10">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="17" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1"/>
@@ -3110,82 +3054,60 @@
       <c r="I41" s="4"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" customFormat="1" spans="1:10">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" customFormat="1" ht="17" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1">
+        <v>99</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:10">
+      <c r="J42" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:10">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" ht="17" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C44" s="1">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+        <v>99</v>
+      </c>
       <c r="H44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="J44" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="1">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="17" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -3199,99 +3121,102 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="17" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J47" s="3" t="s">
+    </row>
+    <row r="49" ht="17" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="17" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+    <row r="55" customFormat="1" ht="17" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="1">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="1">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" t="s">
-        <v>158</v>
-      </c>
-      <c r="L54" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:12">
-      <c r="A55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="1">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -3299,53 +3224,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K55" t="s">
-        <v>162</v>
-      </c>
-      <c r="L55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:12">
-      <c r="A56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="1">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K56" t="s">
-        <v>166</v>
-      </c>
-      <c r="L56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" ht="17" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -3353,41 +3240,41 @@
       <c r="D57" s="1">
         <v>4</v>
       </c>
-      <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="H57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="17" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="K57" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:12">
-      <c r="A58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -3395,31 +3282,31 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="1:12">
+    <row r="59" customFormat="1" ht="17" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -3427,31 +3314,31 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:12">
+    <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3459,31 +3346,31 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:12">
+    <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3491,31 +3378,31 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K61" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:12">
+    <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3523,31 +3410,31 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="28" spans="1:12">
+    <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3555,31 +3442,31 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:12">
+    <row r="64" customFormat="1" ht="17" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -3587,31 +3474,31 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="1:12">
+    <row r="65" customFormat="1" ht="17" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
       </c>
       <c r="D65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -3619,31 +3506,31 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:12">
+    <row r="66" customFormat="1" ht="34" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3651,31 +3538,31 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K66" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L66" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:12">
+    <row r="67" customFormat="1" ht="17" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3683,156 +3570,156 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K67" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L67" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:12">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+    <row r="68" customFormat="1" ht="17" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="1">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4</v>
+      </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="3"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" spans="1:12">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="J68" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" t="s">
+        <v>199</v>
+      </c>
+      <c r="L68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="17" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="3"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" spans="1:12">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="J69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" t="s">
+        <v>203</v>
+      </c>
+      <c r="L69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="17" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="3"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:12">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="3"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" customFormat="1" spans="1:12">
-      <c r="A72" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="1">
-        <v>9</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K72" t="s">
-        <v>215</v>
-      </c>
-      <c r="L72" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="J72" s="3"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" customFormat="1" spans="1:12">
-      <c r="A73" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="1">
-        <v>9</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K73" t="s">
-        <v>219</v>
-      </c>
-      <c r="L73" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="42" spans="1:12">
-      <c r="A74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="1">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K74" t="s">
-        <v>223</v>
-      </c>
-      <c r="L74" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:12">
+      <c r="J73" s="3"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="75" customFormat="1" ht="17" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
@@ -3842,7 +3729,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="b">
@@ -3850,21 +3737,21 @@
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K75" t="s">
+        <v>212</v>
+      </c>
+      <c r="L75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="17" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K75" t="s">
-        <v>227</v>
-      </c>
-      <c r="L75" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" ht="28" spans="1:12">
-      <c r="A76" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C76" s="1">
         <v>9</v>
@@ -3874,7 +3761,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="b">
@@ -3882,21 +3769,21 @@
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K76" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L76" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:12">
+    <row r="77" customFormat="1" ht="51" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C77" s="1">
         <v>9</v>
@@ -3906,7 +3793,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="b">
@@ -3914,21 +3801,21 @@
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K77" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="L77" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:12">
+    <row r="78" customFormat="1" ht="17" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3938,7 +3825,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3946,64 +3833,108 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="L78" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:12">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+    <row r="79" customFormat="1" ht="34" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="1">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="3"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" customFormat="1" spans="1:12">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="J79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K79" t="s">
+        <v>228</v>
+      </c>
+      <c r="L79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="17" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="1">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="3"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="J80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K80" t="s">
+        <v>232</v>
+      </c>
+      <c r="L80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C81" s="1">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="K81" t="s">
-        <v>243</v>
-      </c>
-      <c r="L81" t="b">
+        <v>236</v>
+      </c>
+      <c r="L81" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4020,219 +3951,211 @@
       <c r="J82" s="3"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="83" customFormat="1" spans="1:12">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="3"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" ht="17" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C84" s="1">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="1">
-        <v>99</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="1">
-        <v>99</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>239</v>
+      </c>
+      <c r="K84" t="s">
+        <v>240</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:12">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="3"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="87" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="1:10">
+      <c r="A88" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="1">
+        <v>99</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H89" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K89" t="s">
-        <v>260</v>
-      </c>
-      <c r="L89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K90" t="s">
-        <v>265</v>
-      </c>
-      <c r="L90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C91" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="1">
         <v>99</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K91" t="s">
-        <v>270</v>
-      </c>
-      <c r="L91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:10">
+      <c r="F92" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K92" t="s">
+        <v>257</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="17" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="H93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J93" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:10">
+        <v>261</v>
+      </c>
+      <c r="K93" t="s">
+        <v>262</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="17" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C94" s="1">
         <v>99</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="H94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J94" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:10">
-      <c r="A95" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1">
-        <v>99</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:10">
+        <v>266</v>
+      </c>
+      <c r="K94" t="s">
+        <v>267</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C96" s="1">
         <v>99</v>
       </c>
@@ -4245,12 +4168,12 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1">
@@ -4265,16 +4188,14 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="1">
         <v>99</v>
       </c>
@@ -4287,16 +4208,14 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1">
         <v>99</v>
       </c>
@@ -4309,16 +4228,14 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>289</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1">
         <v>99</v>
       </c>
@@ -4331,164 +4248,164 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="17" spans="1:10">
+      <c r="A101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="1">
+        <v>99</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" ht="17" spans="1:10">
+      <c r="A102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="1">
+        <v>99</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="17" spans="1:10">
+      <c r="A103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="1">
+        <v>99</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" ht="17" spans="1:10">
+      <c r="A104" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="5">
+        <v>99</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" customFormat="1" spans="1:10">
-      <c r="A101" s="5" t="s">
+    <row r="105" customFormat="1" ht="17" spans="1:10">
+      <c r="A105" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B105" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C105" s="5">
         <v>99</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="8" t="s">
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:10">
-      <c r="A102" s="5" t="s">
+    <row r="106" customFormat="1" ht="17" spans="1:10">
+      <c r="A106" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>295</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C106" s="5">
         <v>99</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="8" t="s">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="103" customFormat="1" spans="1:10">
-      <c r="A103" s="5" t="s">
+    <row r="107" ht="17" spans="1:10">
+      <c r="A107" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C103" s="5">
-        <v>99</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C104" s="1">
-        <v>99</v>
-      </c>
-      <c r="H104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:10">
-      <c r="A105" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" s="1">
-        <v>99</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:10">
-      <c r="A106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C106" s="1">
-        <v>99</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:10">
-      <c r="A107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B107" t="s">
-        <v>310</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
       <c r="H107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:10">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B108" t="s">
-        <v>313</v>
+        <v>300</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4502,15 +4419,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4524,15 +4441,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" ht="17" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C110" s="1">
         <v>99</v>
@@ -4546,15 +4463,15 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C111" s="1">
         <v>99</v>
@@ -4568,15 +4485,15 @@
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="1:10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B112" t="s">
-        <v>325</v>
+        <v>312</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C112" s="1">
         <v>99</v>
@@ -4590,15 +4507,15 @@
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:10">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C113" s="1">
         <v>99</v>
@@ -4612,15 +4529,15 @@
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B114" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C114" s="1">
         <v>99</v>
@@ -4634,15 +4551,15 @@
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" ht="17" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C115" s="1">
         <v>99</v>
@@ -4656,15 +4573,15 @@
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" ht="17" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C116" s="1">
         <v>99</v>
@@ -4678,15 +4595,15 @@
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:10">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="17" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C117" s="1">
         <v>99</v>
@@ -4700,15 +4617,15 @@
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:10">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" ht="17" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C118" s="1">
         <v>99</v>
@@ -4722,81 +4639,81 @@
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C119" s="5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" ht="17" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="1">
         <v>99</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:10">
-      <c r="A120" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" ht="17" spans="1:10">
+      <c r="A120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B120" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" s="1">
         <v>99</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" s="5"/>
-      <c r="J120" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:10">
-      <c r="A121" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" ht="17" spans="1:10">
+      <c r="A121" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="1">
         <v>99</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" s="5"/>
-      <c r="J121" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:10">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" ht="17" spans="1:10">
       <c r="A122" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B122" t="s">
-        <v>354</v>
+        <v>342</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C122" s="5">
         <v>99</v>
@@ -4810,15 +4727,15 @@
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" ht="17" spans="1:10">
       <c r="A123" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B123" t="s">
-        <v>357</v>
+        <v>345</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C123" s="5">
         <v>99</v>
@@ -4832,15 +4749,15 @@
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" ht="17" spans="1:10">
       <c r="A124" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C124" s="5">
         <v>99</v>
@@ -4854,7 +4771,73 @@
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="8" t="s">
-        <v>361</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" ht="17" spans="1:10">
+      <c r="A125" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B125" t="s">
+        <v>351</v>
+      </c>
+      <c r="C125" s="5">
+        <v>99</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" ht="17" spans="1:10">
+      <c r="A126" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B126" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="5">
+        <v>99</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" s="5"/>
+      <c r="J126" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" ht="17" spans="1:10">
+      <c r="A127" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="5">
+        <v>99</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" s="5"/>
+      <c r="J127" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4873,7 +4856,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4890,7 +4873,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="365">
   <si>
     <t>Id</t>
   </si>
@@ -877,9 +877,15 @@
     <t>item_0003</t>
   </si>
   <si>
+    <t>挡板</t>
+  </si>
+  <si>
     <t>res://prefab/item/Item0003.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/item/hall_b/item-32.png</t>
+  </si>
+  <si>
     <t>item_0004</t>
   </si>
   <si>
@@ -889,9 +895,15 @@
     <t>item_0005</t>
   </si>
   <si>
+    <t>保险箱</t>
+  </si>
+  <si>
     <t>res://prefab/item/Item0005.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/item/hall_b/item-01.png</t>
+  </si>
+  <si>
     <t>item_0006</t>
   </si>
   <si>
@@ -1027,6 +1039,9 @@
     <t>res://prefab/item/Item0020.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/item/hall_a/Slice_42.png</t>
+  </si>
+  <si>
     <t>item_0021</t>
   </si>
   <si>
@@ -1054,6 +1069,9 @@
     <t>res://prefab/item/Item0023.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/item/hall_a/Slice_40.png</t>
+  </si>
+  <si>
     <t>item_0024</t>
   </si>
   <si>
@@ -1081,40 +1099,13 @@
     <t>res://prefab/item/Item0026.tscn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>item_0031</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>台灯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>res://prefab/item/Item0031.tscn</t>
-    </r>
+    <t>item_0031</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0031.tscn</t>
   </si>
   <si>
     <t>item_0033</t>
@@ -1150,40 +1141,13 @@
     <t>res://prefab/item/Item0056.tscn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>item_0057</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卡带盒子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>res://prefab/item/Item0057.tscn</t>
-    </r>
+    <t>item_0057</t>
+  </si>
+  <si>
+    <t>卡带盒子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0057.tscn</t>
   </si>
 </sst>
 </file>
@@ -2185,11 +2149,11 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2406,17 +2370,14 @@
     </row>
     <row r="9" ht="28" customHeight="1" spans="10:12">
       <c r="J9" s="1"/>
-      <c r="K9"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="10:12">
       <c r="J10" s="1"/>
-      <c r="K10"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="10:12">
       <c r="J11" s="1"/>
-      <c r="K11"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="10:12">
@@ -4191,11 +4152,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" customFormat="1" ht="17" spans="1:10">
+    <row r="98" customFormat="1" ht="17" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C98" s="1">
         <v>99</v>
       </c>
@@ -4208,12 +4171,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="K98" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1">
@@ -4228,14 +4194,16 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" ht="17" spans="1:10">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" ht="17" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C100" s="1">
         <v>99</v>
       </c>
@@ -4248,15 +4216,18 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="K100" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4270,15 +4241,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4292,15 +4263,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4314,15 +4285,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C104" s="5">
         <v>99</v>
@@ -4336,15 +4307,15 @@
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C105" s="5">
         <v>99</v>
@@ -4358,15 +4329,15 @@
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C106" s="5">
         <v>99</v>
@@ -4380,15 +4351,15 @@
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4397,15 +4368,15 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4419,15 +4390,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4441,15 +4412,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="17" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C110" s="1">
         <v>99</v>
@@ -4463,15 +4434,15 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C111" s="1">
         <v>99</v>
@@ -4485,15 +4456,15 @@
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C112" s="1">
         <v>99</v>
@@ -4507,15 +4478,15 @@
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C113" s="1">
         <v>99</v>
@@ -4529,15 +4500,15 @@
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C114" s="1">
         <v>99</v>
@@ -4551,15 +4522,15 @@
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" ht="17" spans="1:10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" ht="17" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C115" s="1">
         <v>99</v>
@@ -4573,15 +4544,18 @@
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="K115" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="116" customFormat="1" ht="17" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C116" s="1">
         <v>99</v>
@@ -4595,15 +4569,15 @@
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" customFormat="1" ht="17" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C117" s="1">
         <v>99</v>
@@ -4617,15 +4591,15 @@
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" ht="17" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" ht="17" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C118" s="1">
         <v>99</v>
@@ -4639,15 +4613,18 @@
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="K118" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="119" customFormat="1" ht="17" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C119" s="1">
         <v>99</v>
@@ -4661,15 +4638,15 @@
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" customFormat="1" ht="17" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C120" s="1">
         <v>99</v>
@@ -4683,15 +4660,15 @@
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" customFormat="1" ht="17" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C121" s="1">
         <v>99</v>
@@ -4705,15 +4682,15 @@
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" ht="17" spans="1:10">
       <c r="A122" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C122" s="5">
         <v>99</v>
@@ -4727,15 +4704,15 @@
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" customFormat="1" ht="17" spans="1:10">
       <c r="A123" s="5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C123" s="5">
         <v>99</v>
@@ -4749,15 +4726,15 @@
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" customFormat="1" ht="17" spans="1:10">
       <c r="A124" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C124" s="5">
         <v>99</v>
@@ -4771,15 +4748,15 @@
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" customFormat="1" ht="17" spans="1:10">
       <c r="A125" s="5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C125" s="5">
         <v>99</v>
@@ -4793,15 +4770,15 @@
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="8" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="126" customFormat="1" ht="17" spans="1:10">
       <c r="A126" s="5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B126" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C126" s="5">
         <v>99</v>
@@ -4815,15 +4792,15 @@
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" ht="17" spans="1:10">
       <c r="A127" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C127" s="5">
         <v>99</v>
@@ -4837,7 +4814,7 @@
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -2149,11 +2149,11 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
